--- a/biology/Histoire de la zoologie et de la botanique/Donald_E._Russell/Donald_E._Russell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Donald_E._Russell/Donald_E._Russell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donald E. Russell, né en 1927, est un professeur en paléontologie américain.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On doit à Donald E. Russell la découverte de fossiles très importants[réf. nécessaire] :  
 Pakicetus Gingerich &amp; Russell, 1981
 Pakicetus inachus Gingerich &amp; Russell, 1981
-Installé en France depuis 1956, il prend sa retraite en 1992. Entretemps, sa passion pour le style gothique lui fait prendre des cours d'architecture à la Sorbonne. Il construit depuis 2008 à l'aide de son fils Sam un édifice gothique à Saint-Léger-de-Fougeret, dans le Morvan[1]
+Installé en France depuis 1956, il prend sa retraite en 1992. Entretemps, sa passion pour le style gothique lui fait prendre des cours d'architecture à la Sorbonne. Il construit depuis 2008 à l'aide de son fils Sam un édifice gothique à Saint-Léger-de-Fougeret, dans le Morvan
 Il a gagné la médaille Romer-Simpson, un prix important décerné par la Société de paléontologie des vertébrés, en 2005.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Formation universitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Juin 1949 : obtention du titre de "Bachelor of Sciences” (sciences naturelles) à Oregon State College, Corvallis (Oregon).
 Septembre 1956 : obtention du titre de "Master of Arts” (Paléontologie) à l'Université de Californie, Berkeley (Californie). Directeur de recherche : D.E. Savage. Sujet de thèse : Les Mammifères pliocènes du gisement de Juntura (Oregon).
@@ -578,7 +594,9 @@
           <t>Carrière au CNRS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Octobre 1960 : admis au C.N.R.S. dans le grade d'attaché de recherche. Détaché à l'Institut de paléontologie du Muséum national d'histoire naturelle de Paris. Directeur de recherche : J.P. Lehman. Parrain de recherche : J. Piveteau.
 Avril 1964 : promu chargé de recherche.
